--- a/spliced/walkingToRunning/2023-03-27_19-49-05/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-49-05/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.77978897094727</v>
+        <v>3.73009729385376</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.277233123779297</v>
+        <v>-2.067999362945557</v>
       </c>
       <c r="E2" t="n">
-        <v>9.730603218078612</v>
+        <v>2.923094749450684</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4386182389586079</v>
+        <v>0.3322033213479865</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4680532807871848</v>
+        <v>0.1210244501453987</v>
       </c>
       <c r="H2" t="n">
-        <v>2.060500017882589</v>
+        <v>-1.57638051243603</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.897948265075684</v>
+        <v>1.413437724113464</v>
       </c>
       <c r="D3" t="n">
-        <v>1.876962661743164</v>
+        <v>-7.171976566314697</v>
       </c>
       <c r="E3" t="n">
-        <v>4.303222179412842</v>
+        <v>6.755977630615234</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.567447010333154</v>
+        <v>0.6352223770569996</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1997661534507753</v>
+        <v>-0.8322304098058368</v>
       </c>
       <c r="H3" t="n">
-        <v>1.985428574121546</v>
+        <v>-1.049409866333014</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.21874618530273</v>
+        <v>-4.193170547485352</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.779304504394531</v>
+        <v>-4.375148296356201</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.521855354309082</v>
+        <v>1.568653106689453</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6623021185133424</v>
+        <v>0.1475016089714127</v>
       </c>
       <c r="G4" t="n">
-        <v>1.233293045912556</v>
+        <v>-0.1921065187431543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3937855432481396</v>
+        <v>-0.1445163721927848</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.876998901367188</v>
+        <v>-1.307081580162048</v>
       </c>
       <c r="D5" t="n">
-        <v>3.794233560562134</v>
+        <v>-2.807691097259521</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4165830612182617</v>
+        <v>-1.606552600860596</v>
       </c>
       <c r="F5" t="n">
-        <v>1.065984005429924</v>
+        <v>-1.213809009395561</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5608204790782889</v>
+        <v>-0.2346711329983395</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.052491584707599</v>
+        <v>1.28885372863315</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1654682159423828</v>
+        <v>-1.827142477035522</v>
       </c>
       <c r="D6" t="n">
-        <v>-41.74227905273438</v>
+        <v>0.1487736701965332</v>
       </c>
       <c r="E6" t="n">
-        <v>9.125425338745115</v>
+        <v>4.701539993286133</v>
       </c>
       <c r="F6" t="n">
-        <v>1.985182776668951</v>
+        <v>-0.7734762763008961</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.370061922194394</v>
+        <v>-0.09618946024911929</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.959458767460082</v>
+        <v>2.230298755737722</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16.16831207275391</v>
+        <v>-1.866428852081299</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.528035402297974</v>
+        <v>4.58729076385498</v>
       </c>
       <c r="E7" t="n">
-        <v>29.5200309753418</v>
+        <v>1.570873260498047</v>
       </c>
       <c r="F7" t="n">
-        <v>3.586229367909687</v>
+        <v>-0.814207781389884</v>
       </c>
       <c r="G7" t="n">
-        <v>3.220478899587801</v>
+        <v>0.3517244944944581</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.701172142464491</v>
+        <v>1.427822031950592</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.2412894368171692</v>
+        <v>1.589986324310303</v>
       </c>
       <c r="D8" t="n">
-        <v>4.501626968383789</v>
+        <v>-0.6990594863891602</v>
       </c>
       <c r="E8" t="n">
-        <v>4.947979927062988</v>
+        <v>7.147370338439941</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.049730680920693</v>
+        <v>-0.4451152733739872</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3309398520415856</v>
+        <v>0.1002355693144553</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1050501378054163</v>
+        <v>1.227771341498127</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-14.82570934295654</v>
+        <v>11.77978897094727</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.40331840515137</v>
+        <v>-1.277233123779297</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.339614391326904</v>
+        <v>9.730603218078612</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.480390057345936</v>
+        <v>-0.4386182389586079</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.290497637037169</v>
+        <v>-0.4680532807871848</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6122629448847</v>
+        <v>2.060500017882589</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.732851982116699</v>
+        <v>4.897948265075684</v>
       </c>
       <c r="D10" t="n">
-        <v>11.58825302124023</v>
+        <v>1.876962661743164</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.568616628646851</v>
+        <v>4.303222179412842</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.746594315252966</v>
+        <v>-1.567447010333154</v>
       </c>
       <c r="G10" t="n">
-        <v>5.263269504314723</v>
+        <v>-0.1997661534507753</v>
       </c>
       <c r="H10" t="n">
-        <v>2.846692088896868</v>
+        <v>1.985428574121546</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-8.033671379089355</v>
+        <v>17.21874618530273</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.333880424499511</v>
+        <v>-8.779304504394531</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.920849800109863</v>
+        <v>-3.521855354309082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02857317537218518</v>
+        <v>-0.6623021185133424</v>
       </c>
       <c r="G11" t="n">
-        <v>1.524775265437166</v>
+        <v>1.233293045912556</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3577531473285853</v>
+        <v>0.3937855432481396</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.30204772949219</v>
+        <v>4.876998901367188</v>
       </c>
       <c r="D12" t="n">
-        <v>-27.35689926147461</v>
+        <v>3.794233560562134</v>
       </c>
       <c r="E12" t="n">
-        <v>14.50175476074219</v>
+        <v>-0.4165830612182617</v>
       </c>
       <c r="F12" t="n">
-        <v>4.081077046200642</v>
+        <v>1.065984005429924</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.786933429350092</v>
+        <v>-0.5608204790782889</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.819117558486549</v>
+        <v>-2.052491584707599</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3.511280059814453</v>
+        <v>0.1654682159423828</v>
       </c>
       <c r="D13" t="n">
-        <v>11.19524669647217</v>
+        <v>-41.74227905273438</v>
       </c>
       <c r="E13" t="n">
-        <v>6.339620590209961</v>
+        <v>9.125425338745115</v>
       </c>
       <c r="F13" t="n">
-        <v>5.00775977923788</v>
+        <v>1.985182776668951</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.871817700754</v>
+        <v>-1.370061922194394</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.02260407941595</v>
+        <v>-2.959458767460082</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.829581499099731</v>
+        <v>16.16831207275391</v>
       </c>
       <c r="D14" t="n">
-        <v>-56.68034744262695</v>
+        <v>-3.528035402297974</v>
       </c>
       <c r="E14" t="n">
-        <v>7.749513149261475</v>
+        <v>29.5200309753418</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1797645285649305</v>
+        <v>3.586229367909687</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1183369633207527</v>
+        <v>3.220478899587801</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.06624912005396677</v>
+        <v>-3.701172142464491</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-12.45886611938477</v>
+        <v>-0.2412894368171692</v>
       </c>
       <c r="D15" t="n">
-        <v>26.94960594177246</v>
+        <v>4.501626968383789</v>
       </c>
       <c r="E15" t="n">
-        <v>-9.934419631958008</v>
+        <v>4.947979927062988</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.62000698970656</v>
+        <v>-2.049730680920693</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.875881371537381</v>
+        <v>-0.3309398520415856</v>
       </c>
       <c r="H15" t="n">
-        <v>5.026607214496812</v>
+        <v>0.1050501378054163</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-15.69838333129883</v>
+        <v>-14.82570934295654</v>
       </c>
       <c r="D16" t="n">
-        <v>4.704256057739258</v>
+        <v>-18.40331840515137</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.9078369140625</v>
+        <v>-2.339614391326904</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.768456836642528</v>
+        <v>-6.480390057345936</v>
       </c>
       <c r="G16" t="n">
-        <v>-15.13744506739117</v>
+        <v>-0.290497637037169</v>
       </c>
       <c r="H16" t="n">
-        <v>5.25606083264814</v>
+        <v>3.6122629448847</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-22.81047821044922</v>
+        <v>-2.732851982116699</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.102127075195312</v>
+        <v>11.58825302124023</v>
       </c>
       <c r="E17" t="n">
-        <v>3.835212230682373</v>
+        <v>-3.568616628646851</v>
       </c>
       <c r="F17" t="n">
-        <v>4.952609313926157</v>
+        <v>-3.746594315252966</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.08443266002066</v>
+        <v>5.263269504314723</v>
       </c>
       <c r="H17" t="n">
-        <v>3.078852102841224</v>
+        <v>2.846692088896868</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26.74444198608398</v>
+        <v>-8.033671379089355</v>
       </c>
       <c r="D18" t="n">
-        <v>23.38513946533203</v>
+        <v>-1.333880424499511</v>
       </c>
       <c r="E18" t="n">
-        <v>12.87228775024414</v>
+        <v>-8.920849800109863</v>
       </c>
       <c r="F18" t="n">
-        <v>4.517102752240144</v>
+        <v>0.02857317537218518</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1121426887317769</v>
+        <v>1.524775265437166</v>
       </c>
       <c r="H18" t="n">
-        <v>1.888300155020016</v>
+        <v>0.3577531473285853</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.44845008850098</v>
+        <v>13.30204772949219</v>
       </c>
       <c r="D19" t="n">
-        <v>10.10699462890625</v>
+        <v>-27.35689926147461</v>
       </c>
       <c r="E19" t="n">
-        <v>11.63222694396973</v>
+        <v>14.50175476074219</v>
       </c>
       <c r="F19" t="n">
-        <v>3.696813958550474</v>
+        <v>4.081077046200642</v>
       </c>
       <c r="G19" t="n">
-        <v>4.523056784559633</v>
+        <v>-3.786933429350092</v>
       </c>
       <c r="H19" t="n">
-        <v>1.050867166615984</v>
+        <v>-1.819117558486549</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.591778755187989</v>
+        <v>-3.511280059814453</v>
       </c>
       <c r="D20" t="n">
-        <v>-18.45157623291016</v>
+        <v>11.19524669647217</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.295619010925291</v>
+        <v>6.339620590209961</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.479645563261123</v>
+        <v>5.00775977923788</v>
       </c>
       <c r="G20" t="n">
-        <v>1.03966360149645</v>
+        <v>-1.871817700754</v>
       </c>
       <c r="H20" t="n">
-        <v>1.598440124298719</v>
+        <v>-3.02260407941595</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.829581499099731</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-56.68034744262695</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.749513149261475</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1797645285649305</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1183369633207527</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.06624912005396677</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-12.45886611938477</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26.94960594177246</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-9.934419631958008</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-7.62000698970656</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-6.875881371537381</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.026607214496812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.69838333129883</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.704256057739258</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-6.9078369140625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-3.768456836642528</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-15.13744506739117</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.25606083264814</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-22.81047821044922</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8.102127075195312</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.835212230682373</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.952609313926157</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-11.08443266002066</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.078852102841224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>26.74444198608398</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.38513946533203</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12.87228775024414</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.517102752240144</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1121426887317769</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.888300155020016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15.44845008850098</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.10699462890625</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11.63222694396973</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.696813958550474</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.523056784559633</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.050867166615984</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.591778755187989</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-18.45157623291016</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-9.295619010925291</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.479645563261123</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.03966360149645</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.598440124298719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>14.80349922180176</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>22.9969539642334</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-1.046570301055908</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>-4.971113100874858</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>5.150270287760582</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.4502635256288277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-12.98141479492188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-5.830618858337402</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-7.131386756896973</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.691276774793723</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.824305781253101</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.586581079487865</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15.02213287353516</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-47.13114547729492</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.131996154785156</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.383527442585964</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.926498572838676</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-5.056850963437613</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.31139087677002</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.0579719543457</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.640069961547852</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.296718087898288</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-3.505119464119212</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.962326313638459</v>
       </c>
     </row>
   </sheetData>
